--- a/data/trans_orig/P37-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D1DAC1-A267-4805-BEC5-88C101755EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF3273B-14C8-4B6B-BEF3-D9805ED23C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63A8E5CA-7A76-4611-B190-0E9F56E61197}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4258108-E6BD-4BC6-8078-1C3610F80F71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,1354 +77,1366 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>10,67%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
   </si>
   <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>86,46%</t>
   </si>
   <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>18,75%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
   </si>
   <si>
     <t>81,83%</t>
   </si>
   <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>19,92%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>83,46%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>80,08%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>11,94%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>11,42%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>88,06%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>88,58%</t>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>18,83%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>81,17%</t>
+    <t>81,28%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
@@ -1433,475 +1445,475 @@
     <t>30,33%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>69,67%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>62,88%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
+    <t>33,15%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>72,06%</t>
   </si>
   <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>66,85%</t>
   </si>
   <si>
     <t>68,46%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>70,2%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>28,17%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>71,83%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
   </si>
   <si>
     <t>32,87%</t>
   </si>
   <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
   </si>
   <si>
     <t>63,03%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
   </si>
   <si>
     <t>68,09%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
   </si>
   <si>
     <t>32,86%</t>
   </si>
   <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
   </si>
   <si>
     <t>45,37%</t>
   </si>
   <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
   </si>
   <si>
     <t>67,14%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
   </si>
   <si>
     <t>54,63%</t>
   </si>
   <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>38,71%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
   </si>
   <si>
     <t>61,29%</t>
   </si>
   <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>31,65%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>38,29%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
+    <t>45,48%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
   </si>
   <si>
     <t>68,35%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
   </si>
   <si>
     <t>61,71%</t>
   </si>
   <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>54,52%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C42F2C-023A-4F8B-A600-27580D86CCAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9344DF-49DD-4FFC-AF4A-B2D373EAF854}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3710,10 +3722,10 @@
         <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,16 +3737,16 @@
         <v>2753</v>
       </c>
       <c r="D29" s="7">
-        <v>2820292</v>
+        <v>2820293</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2785</v>
@@ -3743,13 +3755,13 @@
         <v>2841958</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5538</v>
@@ -3758,13 +3770,13 @@
         <v>5662251</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3788,7 @@
         <v>3212</v>
       </c>
       <c r="D30" s="7">
-        <v>3274778</v>
+        <v>3274779</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3820,7 +3832,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6741CEE2-7C99-4498-ACF5-2DC825125E7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D364E643-4B18-4C04-AF2E-AD8890D94D98}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,39 +3978,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,39 +4023,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,39 +4068,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4117,13 @@
         <v>89649</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -4120,13 +4132,13 @@
         <v>90777</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -4135,13 +4147,13 @@
         <v>180426</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,7 +4168,7 @@
         <v>415878</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>193</v>
@@ -4278,10 +4290,10 @@
         <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -4290,10 +4302,10 @@
         <v>130761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>208</v>
@@ -4332,7 +4344,7 @@
         <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>512</v>
@@ -4341,13 +4353,13 @@
         <v>531260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,10 +4430,10 @@
         <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -4430,13 +4442,13 @@
         <v>139169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>238</v>
@@ -4445,13 +4457,13 @@
         <v>255460</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4478,13 @@
         <v>552429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -4481,13 +4493,13 @@
         <v>537027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>1015</v>
@@ -4496,13 +4508,13 @@
         <v>1089456</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4582,13 @@
         <v>35500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -4585,13 +4597,13 @@
         <v>42387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -4600,13 +4612,13 @@
         <v>77887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4633,13 @@
         <v>176103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -4636,13 +4648,13 @@
         <v>177204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>335</v>
@@ -4651,13 +4663,13 @@
         <v>353307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4737,13 @@
         <v>57913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -4740,13 +4752,13 @@
         <v>64315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -4755,13 +4767,13 @@
         <v>122228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4788,13 @@
         <v>216068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -4791,13 +4803,13 @@
         <v>215716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>412</v>
@@ -4806,7 +4818,7 @@
         <v>431784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>267</v>
@@ -5041,7 +5053,7 @@
         <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
@@ -5050,10 +5062,10 @@
         <v>132885</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>289</v>
@@ -5068,10 +5080,10 @@
         <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5098,13 @@
         <v>653223</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>636</v>
@@ -5101,13 +5113,13 @@
         <v>690968</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>1240</v>
@@ -5116,13 +5128,13 @@
         <v>1344191</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5202,13 @@
         <v>604171</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>602</v>
@@ -5205,13 +5217,13 @@
         <v>649351</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>1150</v>
@@ -5220,13 +5232,13 @@
         <v>1253522</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5253,13 @@
         <v>2817584</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>2695</v>
@@ -5256,7 +5268,7 @@
         <v>2907887</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>312</v>
@@ -5333,7 +5345,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F4A1EB-8BA9-43D6-8578-83090C288B01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD7E192-41D8-4AAB-A852-DA4891A7095A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5517,7 +5529,7 @@
         <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5544,13 @@
         <v>250398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -5547,13 +5559,13 @@
         <v>242227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -5562,13 +5574,13 @@
         <v>492625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5648,13 @@
         <v>79730</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -5651,13 +5663,13 @@
         <v>69571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -5666,13 +5678,13 @@
         <v>149302</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>55</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5699,13 @@
         <v>422845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5702,13 +5714,13 @@
         <v>453513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>824</v>
@@ -5717,13 +5729,13 @@
         <v>876357</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5803,13 @@
         <v>59743</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -5806,13 +5818,13 @@
         <v>72567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>130</v>
@@ -5821,13 +5833,13 @@
         <v>132310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5854,13 @@
         <v>258822</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -5857,13 +5869,13 @@
         <v>263742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>537</v>
@@ -5872,13 +5884,13 @@
         <v>522564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5958,13 @@
         <v>71425</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5961,13 +5973,13 @@
         <v>82109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -5976,13 +5988,13 @@
         <v>153534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6009,13 @@
         <v>298539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -6012,13 +6024,13 @@
         <v>305174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -6027,13 +6039,13 @@
         <v>603713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6113,13 @@
         <v>27855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6116,13 +6128,13 @@
         <v>30232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6131,13 +6143,13 @@
         <v>58087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6164,13 @@
         <v>183366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -6167,13 +6179,13 @@
         <v>188355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>46</v>
       </c>
       <c r="M17" s="7">
         <v>377</v>
@@ -6182,13 +6194,13 @@
         <v>371721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6268,13 @@
         <v>50688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -6271,10 +6283,10 @@
         <v>63852</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>403</v>
@@ -6322,13 +6334,13 @@
         <v>209263</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
@@ -6337,13 +6349,13 @@
         <v>421698</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6423,13 @@
         <v>108611</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -6426,13 +6438,13 @@
         <v>133541</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>212</v>
@@ -6441,13 +6453,13 @@
         <v>242152</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6474,13 @@
         <v>547947</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -6477,13 +6489,13 @@
         <v>557753</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>1014</v>
@@ -6492,13 +6504,13 @@
         <v>1105700</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,7 +6599,7 @@
         <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -6596,13 +6608,13 @@
         <v>207464</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6629,13 @@
         <v>685651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>662</v>
@@ -6632,13 +6644,13 @@
         <v>711635</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>86</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>1316</v>
@@ -6647,13 +6659,13 @@
         <v>1397286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6733,13 @@
         <v>534348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>526</v>
@@ -6736,13 +6748,13 @@
         <v>612880</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>285</v>
+        <v>421</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>1062</v>
@@ -6751,13 +6763,13 @@
         <v>1147228</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6784,13 @@
         <v>2860002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>2812</v>
@@ -6787,13 +6799,13 @@
         <v>2931662</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>431</v>
       </c>
       <c r="M29" s="7">
         <v>5507</v>
@@ -6802,13 +6814,13 @@
         <v>5791664</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,7 +6876,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +6900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4132BB8D-ED51-41B8-AFC2-657E4BF80B13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F99EFF5-5D1F-480B-80CD-EC0F81CE04B5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,13 +7024,13 @@
         <v>78943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -7027,13 +7039,13 @@
         <v>100753</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M4" s="7">
         <v>313</v>
@@ -7042,13 +7054,13 @@
         <v>179695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7075,13 @@
         <v>181355</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>337</v>
@@ -7078,13 +7090,13 @@
         <v>170650</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>556</v>
@@ -7093,13 +7105,13 @@
         <v>352005</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7179,13 @@
         <v>145076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>372</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
@@ -7182,13 +7194,13 @@
         <v>174927</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -7197,13 +7209,13 @@
         <v>320003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7230,13 @@
         <v>374221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>379</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
@@ -7233,13 +7245,13 @@
         <v>379639</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M8" s="7">
         <v>723</v>
@@ -7248,13 +7260,13 @@
         <v>753861</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7334,13 @@
         <v>90782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
@@ -7337,13 +7349,13 @@
         <v>117941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>323</v>
@@ -7352,13 +7364,13 @@
         <v>208723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7385,13 @@
         <v>231458</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H11" s="7">
         <v>343</v>
@@ -7388,13 +7400,13 @@
         <v>255343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -7403,13 +7415,13 @@
         <v>486801</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7489,13 @@
         <v>105933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
@@ -7492,13 +7504,13 @@
         <v>147777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -7507,13 +7519,13 @@
         <v>253710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7540,13 @@
         <v>216307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -7543,13 +7555,13 @@
         <v>280779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>485</v>
@@ -7558,13 +7570,13 @@
         <v>497086</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7644,13 @@
         <v>61523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -7647,13 +7659,13 @@
         <v>89123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M16" s="7">
         <v>319</v>
@@ -7662,13 +7674,13 @@
         <v>150646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7695,13 @@
         <v>135225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
@@ -7698,13 +7710,13 @@
         <v>142373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="M17" s="7">
         <v>451</v>
@@ -7713,13 +7725,13 @@
         <v>277598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7799,13 @@
         <v>74537</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H19" s="7">
         <v>220</v>
@@ -7802,13 +7814,13 @@
         <v>101885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
@@ -7817,13 +7829,13 @@
         <v>176422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7850,13 @@
         <v>202686</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -7853,13 +7865,13 @@
         <v>173737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="M20" s="7">
         <v>469</v>
@@ -7868,13 +7880,13 @@
         <v>376423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7954,13 @@
         <v>206298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>372</v>
@@ -7957,13 +7969,13 @@
         <v>364878</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>609</v>
@@ -7972,13 +7984,13 @@
         <v>571176</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +8005,13 @@
         <v>421456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
@@ -8008,13 +8020,13 @@
         <v>439325</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>950</v>
@@ -8023,13 +8035,13 @@
         <v>860781</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8109,13 @@
         <v>308230</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>514</v>
@@ -8112,13 +8124,13 @@
         <v>359498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>858</v>
@@ -8127,13 +8139,13 @@
         <v>667728</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8160,13 @@
         <v>551198</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -8163,13 +8175,13 @@
         <v>506174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>965</v>
@@ -8178,13 +8190,13 @@
         <v>1057372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8264,13 @@
         <v>1071322</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>2238</v>
@@ -8267,13 +8279,13 @@
         <v>1456781</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="M28" s="7">
         <v>3566</v>
@@ -8282,13 +8294,13 @@
         <v>2528103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8315,13 @@
         <v>2313906</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>3124</v>
@@ -8318,13 +8330,13 @@
         <v>2348021</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="M29" s="7">
         <v>5172</v>
@@ -8333,13 +8345,13 @@
         <v>4661927</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,7 +8407,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF3273B-14C8-4B6B-BEF3-D9805ED23C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D22E558-0851-4CBC-B735-29C3432A3E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4258108-E6BD-4BC6-8078-1C3610F80F71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51000F8D-D9DF-4739-AE1D-6D24D0957B32}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>85,22%</t>
   </si>
   <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>87,88%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>10,32%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -200,31 +200,31 @@
     <t>11,5%</t>
   </si>
   <si>
-    <t>19,45%</t>
+    <t>19,29%</t>
   </si>
   <si>
     <t>18,92%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>80,55%</t>
+    <t>80,71%</t>
   </si>
   <si>
     <t>88,5%</t>
@@ -233,19 +233,19 @@
     <t>81,08%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1278 +254,1248 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>88,07%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
   </si>
   <si>
     <t>85,97%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>81,31%</t>
   </si>
   <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
     <t>68,46%</t>
   </si>
   <si>
@@ -1817,9 +1787,6 @@
     <t>35,86%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
     <t>40,19%</t>
   </si>
   <si>
@@ -1845,9 +1812,6 @@
   </si>
   <si>
     <t>59,81%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
   </si>
   <si>
     <t>58,47%</t>
@@ -2325,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9344DF-49DD-4FFC-AF4A-B2D373EAF854}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2F33B9-3E04-4191-8879-BB2B81233AAD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3242,10 +3206,10 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -3254,13 +3218,13 @@
         <v>84344</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3239,13 @@
         <v>235361</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>224</v>
@@ -3290,13 +3254,13 @@
         <v>229250</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="M20" s="7">
         <v>454</v>
@@ -3305,13 +3269,13 @@
         <v>464611</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,7 +3331,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3379,13 +3343,13 @@
         <v>92522</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>105</v>
@@ -3394,13 +3358,13 @@
         <v>109667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>198</v>
@@ -3409,13 +3373,13 @@
         <v>202189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3394,13 @@
         <v>521655</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>516</v>
@@ -3445,13 +3409,13 @@
         <v>528552</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>1020</v>
@@ -3460,13 +3424,13 @@
         <v>1050207</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3486,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3534,13 +3498,13 @@
         <v>112484</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -3549,13 +3513,13 @@
         <v>116700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>220</v>
@@ -3564,13 +3528,13 @@
         <v>229184</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3549,13 @@
         <v>631311</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="H26" s="7">
         <v>639</v>
@@ -3600,13 +3564,13 @@
         <v>666811</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1261</v>
@@ -3615,13 +3579,13 @@
         <v>1298122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3653,13 @@
         <v>454486</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>510</v>
@@ -3704,13 +3668,13 @@
         <v>535342</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>969</v>
@@ -3719,13 +3683,13 @@
         <v>989828</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,16 +3701,16 @@
         <v>2753</v>
       </c>
       <c r="D29" s="7">
-        <v>2820293</v>
+        <v>2820292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>2785</v>
@@ -3755,13 +3719,13 @@
         <v>2841958</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>5538</v>
@@ -3770,13 +3734,13 @@
         <v>5662251</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,7 +3752,7 @@
         <v>3212</v>
       </c>
       <c r="D30" s="7">
-        <v>3274779</v>
+        <v>3274778</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3796,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D364E643-4B18-4C04-AF2E-AD8890D94D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D46D7E-A39D-4F82-B9A5-4951D9D8BF4C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3837,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,39 +3942,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,39 +3987,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,39 +4032,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4081,13 @@
         <v>89649</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -4132,13 +4096,13 @@
         <v>90777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -4147,13 +4111,13 @@
         <v>180426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4132,13 @@
         <v>415878</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -4183,13 +4147,13 @@
         <v>432988</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>790</v>
@@ -4198,13 +4162,13 @@
         <v>848866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4236,13 @@
         <v>67084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4287,13 +4251,13 @@
         <v>63677</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -4302,13 +4266,13 @@
         <v>130761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4287,13 @@
         <v>254988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -4338,13 +4302,13 @@
         <v>276272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>512</v>
@@ -4353,13 +4317,13 @@
         <v>531260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4391,13 @@
         <v>116291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -4442,13 +4406,13 @@
         <v>139169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>238</v>
@@ -4457,13 +4421,13 @@
         <v>255460</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4442,13 @@
         <v>552429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -4493,13 +4457,13 @@
         <v>537027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1015</v>
@@ -4508,13 +4472,13 @@
         <v>1089456</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4546,13 @@
         <v>35500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -4597,13 +4561,13 @@
         <v>42387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -4612,13 +4576,13 @@
         <v>77887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4597,13 @@
         <v>176103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -4648,13 +4612,13 @@
         <v>177204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>335</v>
@@ -4663,13 +4627,13 @@
         <v>353307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4701,13 @@
         <v>57913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -4752,13 +4716,13 @@
         <v>64315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -4767,13 +4731,13 @@
         <v>122228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4752,13 @@
         <v>216068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -4803,13 +4767,13 @@
         <v>215716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>412</v>
@@ -4818,13 +4782,13 @@
         <v>431784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4844,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4892,13 +4856,13 @@
         <v>113894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -4907,13 +4871,13 @@
         <v>116140</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -4922,13 +4886,13 @@
         <v>230034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4907,13 @@
         <v>548894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -4958,13 +4922,13 @@
         <v>577713</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -4973,13 +4937,13 @@
         <v>1126607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +4999,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5047,13 +5011,13 @@
         <v>123840</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
@@ -5062,13 +5026,13 @@
         <v>132885</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
@@ -5077,13 +5041,13 @@
         <v>256725</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5062,13 @@
         <v>653223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>636</v>
@@ -5113,13 +5077,13 @@
         <v>690968</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>1240</v>
@@ -5128,13 +5092,13 @@
         <v>1344191</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5166,13 @@
         <v>604171</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>602</v>
@@ -5217,13 +5181,13 @@
         <v>649351</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M28" s="7">
         <v>1150</v>
@@ -5232,13 +5196,13 @@
         <v>1253522</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5217,13 @@
         <v>2817584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>2695</v>
@@ -5268,28 +5232,28 @@
         <v>2907887</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>5351</v>
       </c>
       <c r="N29" s="7">
-        <v>5725471</v>
+        <v>5725470</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,7 +5295,7 @@
         <v>6501</v>
       </c>
       <c r="N30" s="7">
-        <v>6978993</v>
+        <v>6978992</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5345,7 +5309,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD7E192-41D8-4AAB-A852-DA4891A7095A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1C2641-9AE2-46FD-8255-A61D807714BB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5457,13 @@
         <v>43363</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5508,13 +5472,13 @@
         <v>46476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -5523,13 +5487,13 @@
         <v>89839</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5508,13 @@
         <v>250398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -5559,13 +5523,13 @@
         <v>242227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -5574,13 +5538,13 @@
         <v>492625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5612,13 @@
         <v>79730</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -5663,13 +5627,13 @@
         <v>69571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -5678,13 +5642,13 @@
         <v>149302</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5663,13 @@
         <v>422845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5714,13 +5678,13 @@
         <v>453513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>824</v>
@@ -5729,13 +5693,13 @@
         <v>876357</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5767,13 @@
         <v>59743</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -5818,13 +5782,13 @@
         <v>72567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>130</v>
@@ -5833,13 +5797,13 @@
         <v>132310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5818,13 @@
         <v>258822</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -5869,13 +5833,13 @@
         <v>263742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>537</v>
@@ -5884,13 +5848,13 @@
         <v>522564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5922,13 @@
         <v>71425</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5973,13 +5937,13 @@
         <v>82109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -5988,13 +5952,13 @@
         <v>153534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5973,13 @@
         <v>298539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -6024,13 +5988,13 @@
         <v>305174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -6039,13 +6003,13 @@
         <v>603713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6077,13 @@
         <v>27855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6128,13 +6092,13 @@
         <v>30232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>36</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6143,13 +6107,13 @@
         <v>58087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6128,13 @@
         <v>183366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -6179,13 +6143,13 @@
         <v>188355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>46</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>377</v>
@@ -6194,13 +6158,13 @@
         <v>371721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6232,13 @@
         <v>50688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -6283,13 +6247,13 @@
         <v>63852</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -6298,13 +6262,13 @@
         <v>114540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6283,13 @@
         <v>212435</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -6334,13 +6298,13 @@
         <v>209263</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>376</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
@@ -6349,13 +6313,13 @@
         <v>421698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6375,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6423,13 +6387,13 @@
         <v>108611</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -6438,13 +6402,13 @@
         <v>133541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>212</v>
@@ -6453,13 +6417,13 @@
         <v>242152</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6438,13 @@
         <v>547947</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -6489,13 +6453,13 @@
         <v>557753</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M23" s="7">
         <v>1014</v>
@@ -6504,13 +6468,13 @@
         <v>1105700</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,7 +6530,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6578,13 +6542,13 @@
         <v>92932</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -6593,13 +6557,13 @@
         <v>114532</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -6608,13 +6572,13 @@
         <v>207464</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6593,13 @@
         <v>685651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>662</v>
@@ -6644,13 +6608,13 @@
         <v>711635</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>106</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>1316</v>
@@ -6659,13 +6623,13 @@
         <v>1397286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6697,13 @@
         <v>534348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H28" s="7">
         <v>526</v>
@@ -6748,13 +6712,13 @@
         <v>612880</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="M28" s="7">
         <v>1062</v>
@@ -6763,13 +6727,13 @@
         <v>1147228</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6748,13 @@
         <v>2860002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>2812</v>
@@ -6799,13 +6763,13 @@
         <v>2931662</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>5507</v>
@@ -6814,13 +6778,13 @@
         <v>5791664</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6840,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F99EFF5-5D1F-480B-80CD-EC0F81CE04B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50BC4F6-FE87-47D7-810A-2DC6D8C94326}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6881,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7024,13 +6988,13 @@
         <v>78943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -7039,13 +7003,13 @@
         <v>100753</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="M4" s="7">
         <v>313</v>
@@ -7054,13 +7018,13 @@
         <v>179695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7039,13 @@
         <v>181355</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="H5" s="7">
         <v>337</v>
@@ -7090,13 +7054,13 @@
         <v>170650</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="M5" s="7">
         <v>556</v>
@@ -7105,13 +7069,13 @@
         <v>352005</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7143,13 @@
         <v>145076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
@@ -7194,13 +7158,13 @@
         <v>174927</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -7209,13 +7173,13 @@
         <v>320003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7194,13 @@
         <v>374221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>484</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
@@ -7245,13 +7209,13 @@
         <v>379639</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="M8" s="7">
         <v>723</v>
@@ -7260,13 +7224,13 @@
         <v>753861</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7298,13 @@
         <v>90782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
@@ -7349,13 +7313,13 @@
         <v>117941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="M10" s="7">
         <v>323</v>
@@ -7364,13 +7328,13 @@
         <v>208723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7349,13 @@
         <v>231458</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="H11" s="7">
         <v>343</v>
@@ -7400,13 +7364,13 @@
         <v>255343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -7415,13 +7379,13 @@
         <v>486801</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7453,13 @@
         <v>105933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
@@ -7504,13 +7468,13 @@
         <v>147777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -7519,13 +7483,13 @@
         <v>253710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7504,13 @@
         <v>216307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -7555,13 +7519,13 @@
         <v>280779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="M14" s="7">
         <v>485</v>
@@ -7570,13 +7534,13 @@
         <v>497086</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7608,13 @@
         <v>61523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -7659,13 +7623,13 @@
         <v>89123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="M16" s="7">
         <v>319</v>
@@ -7674,13 +7638,13 @@
         <v>150646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7659,13 @@
         <v>135225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
@@ -7710,13 +7674,13 @@
         <v>142373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="M17" s="7">
         <v>451</v>
@@ -7725,13 +7689,13 @@
         <v>277598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7763,13 @@
         <v>74537</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>220</v>
@@ -7814,13 +7778,13 @@
         <v>101885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
@@ -7829,13 +7793,13 @@
         <v>176422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7814,13 @@
         <v>202686</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -7865,13 +7829,13 @@
         <v>173737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>469</v>
@@ -7880,13 +7844,13 @@
         <v>376423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,7 +7906,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7954,13 +7918,13 @@
         <v>206298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="H22" s="7">
         <v>372</v>
@@ -7969,13 +7933,13 @@
         <v>364878</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="M22" s="7">
         <v>609</v>
@@ -7984,13 +7948,13 @@
         <v>571176</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7969,13 @@
         <v>421456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
@@ -8020,13 +7984,13 @@
         <v>439325</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="M23" s="7">
         <v>950</v>
@@ -8035,13 +7999,13 @@
         <v>860781</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,7 +8061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8109,13 +8073,13 @@
         <v>308230</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>397</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="H25" s="7">
         <v>514</v>
@@ -8124,13 +8088,13 @@
         <v>359498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="M25" s="7">
         <v>858</v>
@@ -8139,13 +8103,13 @@
         <v>667728</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8124,13 @@
         <v>551198</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>403</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -8175,13 +8139,13 @@
         <v>506174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>965</v>
@@ -8190,13 +8154,13 @@
         <v>1057372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8228,13 @@
         <v>1071322</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>2238</v>
@@ -8279,13 +8243,13 @@
         <v>1456781</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="M28" s="7">
         <v>3566</v>
@@ -8294,13 +8258,13 @@
         <v>2528103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8279,13 @@
         <v>2313906</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="H29" s="7">
         <v>3124</v>
@@ -8330,13 +8294,13 @@
         <v>2348021</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="M29" s="7">
         <v>5172</v>
@@ -8345,13 +8309,13 @@
         <v>4661927</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,7 +8371,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D22E558-0851-4CBC-B735-29C3432A3E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1744EAC-8031-43EE-AC3E-C0C85FC84BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51000F8D-D9DF-4739-AE1D-6D24D0957B32}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42845FB2-BF8B-45DC-B3A4-9F9D96A9E6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -71,1336 +71,1360 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>8,29%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>85,65%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>90,34%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>Población según si se han vacunado de la gripe en la última campaña en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
@@ -1409,475 +1433,475 @@
     <t>30,33%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>37,12%</t>
   </si>
   <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
   </si>
   <si>
     <t>69,67%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>62,88%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>72,06%</t>
   </si>
   <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>68,46%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
   </si>
   <si>
     <t>70,2%</t>
   </si>
   <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>28,17%</t>
   </si>
   <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>71,83%</t>
   </si>
   <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>32,87%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>34,48%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
   </si>
   <si>
     <t>67,13%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
   </si>
   <si>
     <t>65,52%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>38,5%</t>
   </si>
   <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>35,18%</t>
   </si>
   <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
+    <t>38,64%</t>
   </si>
   <si>
     <t>68,73%</t>
   </si>
   <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>61,5%</t>
   </si>
   <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
   </si>
   <si>
     <t>64,82%</t>
   </si>
   <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>36,97%</t>
   </si>
   <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
+    <t>64,32%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>40,19%</t>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
   </si>
   <si>
     <t>38,71%</t>
   </si>
   <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>59,81%</t>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
   </si>
   <si>
     <t>61,29%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
   <si>
     <t>31,65%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>38,29%</t>
   </si>
   <si>
-    <t>45,48%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>68,35%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>61,71%</t>
   </si>
   <si>
-    <t>54,52%</t>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2F33B9-3E04-4191-8879-BB2B81233AAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB208DE2-C297-46EC-942D-E6564DCC6C6D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3206,10 +3230,10 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -3218,13 +3242,13 @@
         <v>84344</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3263,13 @@
         <v>235361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>224</v>
@@ -3254,13 +3278,13 @@
         <v>229250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>454</v>
@@ -3269,13 +3293,13 @@
         <v>464611</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3355,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3343,13 +3367,13 @@
         <v>92522</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>105</v>
@@ -3358,13 +3382,13 @@
         <v>109667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>198</v>
@@ -3373,13 +3397,13 @@
         <v>202189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3418,13 @@
         <v>521655</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>516</v>
@@ -3409,13 +3433,13 @@
         <v>528552</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1020</v>
@@ -3424,13 +3448,13 @@
         <v>1050207</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,7 +3510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3498,13 +3522,13 @@
         <v>112484</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>106</v>
@@ -3513,13 +3537,13 @@
         <v>116700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>220</v>
@@ -3528,13 +3552,13 @@
         <v>229184</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3573,13 @@
         <v>631311</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>639</v>
@@ -3564,13 +3588,13 @@
         <v>666811</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1261</v>
@@ -3579,13 +3603,13 @@
         <v>1298122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3677,13 @@
         <v>454486</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>510</v>
@@ -3668,13 +3692,13 @@
         <v>535342</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>969</v>
@@ -3683,13 +3707,13 @@
         <v>989828</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3728,13 @@
         <v>2820292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2785</v>
@@ -3719,13 +3743,13 @@
         <v>2841958</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5538</v>
@@ -3734,13 +3758,13 @@
         <v>5662251</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3820,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D46D7E-A39D-4F82-B9A5-4951D9D8BF4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5937FFA-3A69-478D-987A-D1D500F11FE7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3837,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3942,39 +3966,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,39 +4011,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,39 +4056,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4105,13 @@
         <v>89649</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -4096,13 +4120,13 @@
         <v>90777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -4111,13 +4135,13 @@
         <v>180426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4156,13 @@
         <v>415878</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -4147,13 +4171,13 @@
         <v>432988</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>790</v>
@@ -4162,13 +4186,13 @@
         <v>848866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4260,13 @@
         <v>67084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4251,13 +4275,13 @@
         <v>63677</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -4266,13 +4290,13 @@
         <v>130761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4311,13 @@
         <v>254988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -4302,13 +4326,13 @@
         <v>276272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>512</v>
@@ -4317,13 +4341,13 @@
         <v>531260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4415,13 @@
         <v>116291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -4406,13 +4430,13 @@
         <v>139169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>238</v>
@@ -4421,13 +4445,13 @@
         <v>255460</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4466,13 @@
         <v>552429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -4457,13 +4481,13 @@
         <v>537027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1015</v>
@@ -4472,13 +4496,13 @@
         <v>1089456</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4570,13 @@
         <v>35500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -4561,13 +4585,13 @@
         <v>42387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -4576,13 +4600,13 @@
         <v>77887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4621,13 @@
         <v>176103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -4612,13 +4636,13 @@
         <v>177204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>335</v>
@@ -4627,13 +4651,13 @@
         <v>353307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4725,13 @@
         <v>57913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -4716,13 +4740,13 @@
         <v>64315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -4731,13 +4755,13 @@
         <v>122228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4776,13 @@
         <v>216068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -4767,13 +4791,13 @@
         <v>215716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>412</v>
@@ -4782,13 +4806,13 @@
         <v>431784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,7 +4868,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4856,13 +4880,13 @@
         <v>113894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -4871,13 +4895,13 @@
         <v>116140</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -4886,13 +4910,13 @@
         <v>230034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4931,13 @@
         <v>548894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -4922,13 +4946,13 @@
         <v>577713</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -4937,13 +4961,13 @@
         <v>1126607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,7 +5023,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5011,13 +5035,13 @@
         <v>123840</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
@@ -5026,13 +5050,13 @@
         <v>132885</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
@@ -5041,13 +5065,13 @@
         <v>256725</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5086,13 @@
         <v>653223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>636</v>
@@ -5077,13 +5101,13 @@
         <v>690968</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>1240</v>
@@ -5092,13 +5116,13 @@
         <v>1344191</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5190,13 @@
         <v>604171</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>602</v>
@@ -5181,13 +5205,13 @@
         <v>649351</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M28" s="7">
         <v>1150</v>
@@ -5196,13 +5220,13 @@
         <v>1253522</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5241,13 @@
         <v>2817584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>2695</v>
@@ -5232,28 +5256,28 @@
         <v>2907887</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>5351</v>
       </c>
       <c r="N29" s="7">
-        <v>5725470</v>
+        <v>5725471</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,7 +5319,7 @@
         <v>6501</v>
       </c>
       <c r="N30" s="7">
-        <v>6978992</v>
+        <v>6978993</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5309,7 +5333,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1C2641-9AE2-46FD-8255-A61D807714BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B8E4B4-4AF5-4808-8721-0F56894BB9CF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5350,7 +5374,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5457,13 +5481,13 @@
         <v>43363</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5472,13 +5496,13 @@
         <v>46476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -5487,13 +5511,13 @@
         <v>89839</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5532,13 @@
         <v>250398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -5523,13 +5547,13 @@
         <v>242227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -5538,13 +5562,13 @@
         <v>492625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5636,13 @@
         <v>79730</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -5627,13 +5651,13 @@
         <v>69571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -5642,13 +5666,13 @@
         <v>149302</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5687,13 @@
         <v>422845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5678,13 +5702,13 @@
         <v>453513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>824</v>
@@ -5693,13 +5717,13 @@
         <v>876357</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5791,13 @@
         <v>59743</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -5782,13 +5806,13 @@
         <v>72567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>130</v>
@@ -5797,13 +5821,13 @@
         <v>132310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5842,13 @@
         <v>258822</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -5833,13 +5857,13 @@
         <v>263742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>537</v>
@@ -5848,13 +5872,13 @@
         <v>522564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5946,13 @@
         <v>71425</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5937,13 +5961,13 @@
         <v>82109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -5952,13 +5976,13 @@
         <v>153534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5997,13 @@
         <v>298539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -5988,13 +6012,13 @@
         <v>305174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -6003,13 +6027,13 @@
         <v>603713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6101,13 @@
         <v>27855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6092,13 +6116,13 @@
         <v>30232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6107,13 +6131,13 @@
         <v>58087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>40</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6152,13 @@
         <v>183366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -6143,13 +6167,13 @@
         <v>188355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>377</v>
@@ -6158,13 +6182,13 @@
         <v>371721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6256,13 @@
         <v>50688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -6247,13 +6271,13 @@
         <v>63852</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -6262,13 +6286,13 @@
         <v>114540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6307,13 @@
         <v>212435</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -6298,13 +6322,13 @@
         <v>209263</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
@@ -6313,13 +6337,13 @@
         <v>421698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6399,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6387,13 +6411,13 @@
         <v>108611</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -6402,13 +6426,13 @@
         <v>133541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>212</v>
@@ -6417,13 +6441,13 @@
         <v>242152</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6462,13 @@
         <v>547947</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -6453,13 +6477,13 @@
         <v>557753</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>1014</v>
@@ -6468,13 +6492,13 @@
         <v>1105700</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,7 +6554,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6542,13 +6566,13 @@
         <v>92932</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -6557,13 +6581,13 @@
         <v>114532</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -6572,13 +6596,13 @@
         <v>207464</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>266</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6617,13 @@
         <v>685651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>662</v>
@@ -6608,13 +6632,13 @@
         <v>711635</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>106</v>
+        <v>443</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>86</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>1316</v>
@@ -6623,13 +6647,13 @@
         <v>1397286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>274</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6721,13 @@
         <v>534348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>526</v>
@@ -6712,13 +6736,13 @@
         <v>612880</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>285</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>1062</v>
@@ -6727,13 +6751,13 @@
         <v>1147228</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6772,13 @@
         <v>2860002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>2812</v>
@@ -6763,13 +6787,13 @@
         <v>2931662</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>293</v>
       </c>
       <c r="M29" s="7">
         <v>5507</v>
@@ -6778,13 +6802,13 @@
         <v>5791664</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6864,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6864,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50BC4F6-FE87-47D7-810A-2DC6D8C94326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0B847-66E3-4337-9382-0133446C7E3E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6881,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6988,13 +7012,13 @@
         <v>78943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -7003,13 +7027,13 @@
         <v>100753</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>313</v>
@@ -7018,13 +7042,13 @@
         <v>179695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7063,13 @@
         <v>181355</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>337</v>
@@ -7054,13 +7078,13 @@
         <v>170650</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>556</v>
@@ -7069,13 +7093,13 @@
         <v>352005</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7167,13 @@
         <v>145076</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
@@ -7158,13 +7182,13 @@
         <v>174927</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
@@ -7173,13 +7197,13 @@
         <v>320003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7218,13 @@
         <v>374221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
@@ -7209,13 +7233,13 @@
         <v>379639</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>723</v>
@@ -7224,13 +7248,13 @@
         <v>753861</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7322,13 @@
         <v>90782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
@@ -7313,13 +7337,13 @@
         <v>117941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M10" s="7">
         <v>323</v>
@@ -7328,13 +7352,13 @@
         <v>208723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7373,13 @@
         <v>231458</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7">
         <v>343</v>
@@ -7364,13 +7388,13 @@
         <v>255343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -7379,13 +7403,13 @@
         <v>486801</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7477,13 @@
         <v>105933</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
@@ -7468,13 +7492,13 @@
         <v>147777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -7483,13 +7507,13 @@
         <v>253710</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7528,13 @@
         <v>216307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -7519,13 +7543,13 @@
         <v>280779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>485</v>
@@ -7534,13 +7558,13 @@
         <v>497086</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7632,13 @@
         <v>61523</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -7623,13 +7647,13 @@
         <v>89123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M16" s="7">
         <v>319</v>
@@ -7638,13 +7662,13 @@
         <v>150646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7683,13 @@
         <v>135225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
@@ -7674,13 +7698,13 @@
         <v>142373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="M17" s="7">
         <v>451</v>
@@ -7689,13 +7713,13 @@
         <v>277598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7787,13 @@
         <v>74537</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="H19" s="7">
         <v>220</v>
@@ -7778,13 +7802,13 @@
         <v>101885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
@@ -7793,13 +7817,13 @@
         <v>176422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7838,13 @@
         <v>202686</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -7829,13 +7853,13 @@
         <v>173737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M20" s="7">
         <v>469</v>
@@ -7844,13 +7868,13 @@
         <v>376423</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,7 +7930,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7918,13 +7942,13 @@
         <v>206298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H22" s="7">
         <v>372</v>
@@ -7933,13 +7957,13 @@
         <v>364878</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M22" s="7">
         <v>609</v>
@@ -7948,13 +7972,13 @@
         <v>571176</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7993,13 @@
         <v>421456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
@@ -7984,13 +8008,13 @@
         <v>439325</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>950</v>
@@ -7999,13 +8023,13 @@
         <v>860781</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,7 +8085,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8073,13 +8097,13 @@
         <v>308230</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>397</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="H25" s="7">
         <v>514</v>
@@ -8088,13 +8112,13 @@
         <v>359498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="M25" s="7">
         <v>858</v>
@@ -8103,13 +8127,13 @@
         <v>667728</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8148,13 @@
         <v>551198</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>403</v>
+        <v>596</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -8139,13 +8163,13 @@
         <v>506174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="M26" s="7">
         <v>965</v>
@@ -8154,13 +8178,13 @@
         <v>1057372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8252,13 @@
         <v>1071322</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="H28" s="7">
         <v>2238</v>
@@ -8243,13 +8267,13 @@
         <v>1456781</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="M28" s="7">
         <v>3566</v>
@@ -8258,13 +8282,13 @@
         <v>2528103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8303,13 @@
         <v>2313906</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7">
         <v>3124</v>
@@ -8294,13 +8318,13 @@
         <v>2348021</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="M29" s="7">
         <v>5172</v>
@@ -8309,13 +8333,13 @@
         <v>4661927</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8371,7 +8395,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1744EAC-8031-43EE-AC3E-C0C85FC84BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C6D13F2-E504-4AF0-85C5-45EEE6484798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42845FB2-BF8B-45DC-B3A4-9F9D96A9E6D2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{916090EC-B929-41F2-9DEA-B815F94E6B11}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="636">
   <si>
     <t>Población según si se han vacunado de la gripe en la última campaña en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población según si se han vacunado de la gripe en la última campaña en 2012 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>14,5%</t>
@@ -692,52 +743,52 @@
     <t>83,35%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
   <si>
     <t>16,78%</t>
@@ -1304,9 +1355,6 @@
     <t>16,16%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
     <t>17,97%</t>
   </si>
   <si>
@@ -1325,9 +1373,6 @@
     <t>80,68%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
     <t>83,84%</t>
   </si>
   <si>
@@ -1430,478 +1475,478 @@
     <t>Población según si se han vacunado de la gripe en la última campaña en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
   <si>
     <t>58,8%</t>
   </si>
   <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>69,0%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB208DE2-C297-46EC-942D-E6564DCC6C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF23B9C-15CF-4D2B-8578-DE7D345B6668}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3725,7 +3770,7 @@
         <v>2753</v>
       </c>
       <c r="D29" s="7">
-        <v>2820292</v>
+        <v>2820293</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3776,7 +3821,7 @@
         <v>3212</v>
       </c>
       <c r="D30" s="7">
-        <v>3274778</v>
+        <v>3274779</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5937FFA-3A69-478D-987A-D1D500F11FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CD5D11-9917-4EAC-A506-EB34ADF48D64}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3962,43 +4007,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D4" s="7">
+        <v>49773</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I4" s="7">
+        <v>47244</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="N4" s="7">
+        <v>97016</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,43 +4058,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="D5" s="7">
+        <v>244965</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="I5" s="7">
+        <v>240001</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>449</v>
+      </c>
+      <c r="N5" s="7">
+        <v>484967</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,43 +4109,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,10 +4171,10 @@
         <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -4120,13 +4183,13 @@
         <v>90777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M7" s="7">
         <v>162</v>
@@ -4135,13 +4198,13 @@
         <v>180426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,10 +4222,10 @@
         <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -4171,13 +4234,13 @@
         <v>432988</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>790</v>
@@ -4186,13 +4249,13 @@
         <v>848866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4323,13 @@
         <v>67084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4275,13 +4338,13 @@
         <v>63677</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -4290,13 +4353,13 @@
         <v>130761</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4374,13 @@
         <v>254988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -4326,10 +4389,10 @@
         <v>276272</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>85</v>
@@ -4341,13 +4404,13 @@
         <v>531260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,49 +4472,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>116291</v>
+        <v>66518</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>139169</v>
+        <v>91926</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="N13" s="7">
-        <v>255460</v>
+        <v>158444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,49 +4523,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>518</v>
+        <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>552429</v>
+        <v>307464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>497</v>
+        <v>283</v>
       </c>
       <c r="I14" s="7">
-        <v>537027</v>
+        <v>297025</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>1015</v>
+        <v>566</v>
       </c>
       <c r="N14" s="7">
-        <v>1089456</v>
+        <v>604489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,10 +4574,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4526,10 +4589,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4541,10 +4604,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4570,13 +4633,13 @@
         <v>35500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -4585,13 +4648,13 @@
         <v>42387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -4600,13 +4663,13 @@
         <v>77887</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4684,13 @@
         <v>176103</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>171</v>
@@ -4636,13 +4699,13 @@
         <v>177204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>335</v>
@@ -4651,13 +4714,13 @@
         <v>353307</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4788,13 @@
         <v>57913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -4740,13 +4803,13 @@
         <v>64315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -4755,13 +4818,13 @@
         <v>122228</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4839,13 @@
         <v>216068</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -4791,13 +4854,13 @@
         <v>215716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>412</v>
@@ -4806,13 +4869,13 @@
         <v>431784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,10 +4946,10 @@
         <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -4895,13 +4958,13 @@
         <v>116140</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -4910,13 +4973,13 @@
         <v>230034</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,10 +4997,10 @@
         <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -4946,13 +5009,13 @@
         <v>577713</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -4961,13 +5024,13 @@
         <v>1126607</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5098,13 @@
         <v>123840</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
@@ -5050,13 +5113,13 @@
         <v>132885</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="M25" s="7">
         <v>232</v>
@@ -5065,13 +5128,13 @@
         <v>256725</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5149,13 @@
         <v>653223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>636</v>
@@ -5101,10 +5164,10 @@
         <v>690968</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>42</v>
@@ -5116,13 +5179,13 @@
         <v>1344191</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5253,13 @@
         <v>604171</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>602</v>
@@ -5208,10 +5271,10 @@
         <v>129</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="M28" s="7">
         <v>1150</v>
@@ -5220,13 +5283,13 @@
         <v>1253522</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5304,13 @@
         <v>2817584</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="H29" s="7">
         <v>2695</v>
@@ -5259,10 +5322,10 @@
         <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>5351</v>
@@ -5271,13 +5334,13 @@
         <v>5725471</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,7 +5420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B8E4B4-4AF5-4808-8721-0F56894BB9CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FC7D3E-53C2-412A-BFC9-F2C091AFF79E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5437,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5544,13 @@
         <v>43363</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5496,13 +5559,13 @@
         <v>46476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>85</v>
@@ -5511,10 +5574,10 @@
         <v>89839</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -5532,13 +5595,13 @@
         <v>250398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="H5" s="7">
         <v>235</v>
@@ -5547,13 +5610,13 @@
         <v>242227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -5562,13 +5625,13 @@
         <v>492625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5699,13 @@
         <v>79730</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -5651,13 +5714,13 @@
         <v>69571</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -5669,10 +5732,10 @@
         <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5750,13 @@
         <v>422845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -5702,13 +5765,13 @@
         <v>453513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>824</v>
@@ -5720,10 +5783,10 @@
         <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5854,13 @@
         <v>59743</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -5806,13 +5869,13 @@
         <v>72567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>130</v>
@@ -5821,13 +5884,13 @@
         <v>132310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5905,13 @@
         <v>258822</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>267</v>
@@ -5857,13 +5920,13 @@
         <v>263742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>537</v>
@@ -5872,13 +5935,13 @@
         <v>522564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +6009,13 @@
         <v>71425</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5961,13 +6024,13 @@
         <v>82109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -5976,13 +6039,13 @@
         <v>153534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6060,13 @@
         <v>298539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -6012,13 +6075,13 @@
         <v>305174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -6027,13 +6090,13 @@
         <v>603713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6164,13 @@
         <v>27855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6116,13 +6179,13 @@
         <v>30232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6131,13 +6194,13 @@
         <v>58087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6215,13 @@
         <v>183366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>195</v>
@@ -6167,13 +6230,13 @@
         <v>188355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>377</v>
@@ -6182,13 +6245,13 @@
         <v>371721</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6319,13 @@
         <v>50688</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -6271,13 +6334,13 @@
         <v>63852</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -6286,13 +6349,13 @@
         <v>114540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6370,13 @@
         <v>212435</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>206</v>
@@ -6322,13 +6385,13 @@
         <v>209263</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
@@ -6337,13 +6400,13 @@
         <v>421698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6474,13 @@
         <v>108611</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -6426,13 +6489,13 @@
         <v>133541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>212</v>
@@ -6441,13 +6504,13 @@
         <v>242152</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6525,13 @@
         <v>547947</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -6477,13 +6540,13 @@
         <v>557753</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>1014</v>
@@ -6492,13 +6555,13 @@
         <v>1105700</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6629,13 @@
         <v>92932</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="H25" s="7">
         <v>93</v>
@@ -6581,10 +6644,10 @@
         <v>114532</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>78</v>
@@ -6596,13 +6659,13 @@
         <v>207464</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6680,13 @@
         <v>685651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>662</v>
@@ -6632,13 +6695,13 @@
         <v>711635</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>86</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>1316</v>
@@ -6647,13 +6710,13 @@
         <v>1397286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,10 +6784,10 @@
         <v>534348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>78</v>
@@ -6736,13 +6799,13 @@
         <v>612880</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="M28" s="7">
         <v>1062</v>
@@ -6751,13 +6814,13 @@
         <v>1147228</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6835,13 @@
         <v>2860002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>2812</v>
@@ -6787,13 +6850,13 @@
         <v>2931662</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>5507</v>
@@ -6802,13 +6865,13 @@
         <v>5791664</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0B847-66E3-4337-9382-0133446C7E3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316DCA5B-AAA6-4788-9E81-4A8CD9A8A949}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6968,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7009,46 +7072,46 @@
         <v>112</v>
       </c>
       <c r="D4" s="7">
-        <v>78943</v>
+        <v>88939</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
       </c>
       <c r="I4" s="7">
-        <v>100753</v>
+        <v>104967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="M4" s="7">
         <v>313</v>
       </c>
       <c r="N4" s="7">
-        <v>179695</v>
+        <v>193905</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,46 +7123,46 @@
         <v>219</v>
       </c>
       <c r="D5" s="7">
-        <v>181355</v>
+        <v>222504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>337</v>
       </c>
       <c r="I5" s="7">
-        <v>170650</v>
+        <v>184668</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
         <v>556</v>
       </c>
       <c r="N5" s="7">
-        <v>352005</v>
+        <v>407172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,7 +7174,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7126,7 +7189,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7141,7 +7204,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7164,46 +7227,46 @@
         <v>131</v>
       </c>
       <c r="D7" s="7">
-        <v>145076</v>
+        <v>139642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
       </c>
       <c r="I7" s="7">
-        <v>174927</v>
+        <v>161149</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="M7" s="7">
         <v>376</v>
       </c>
       <c r="N7" s="7">
-        <v>320003</v>
+        <v>300791</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,46 +7278,46 @@
         <v>251</v>
       </c>
       <c r="D8" s="7">
-        <v>374221</v>
+        <v>378748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="H8" s="7">
         <v>472</v>
       </c>
       <c r="I8" s="7">
-        <v>379639</v>
+        <v>353820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
         <v>723</v>
       </c>
       <c r="N8" s="7">
-        <v>753861</v>
+        <v>732568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,7 +7329,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7281,7 +7344,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7296,7 +7359,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7319,46 +7382,46 @@
         <v>130</v>
       </c>
       <c r="D10" s="7">
-        <v>90782</v>
+        <v>86636</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
       </c>
       <c r="I10" s="7">
-        <v>117941</v>
+        <v>108912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>323</v>
       </c>
       <c r="N10" s="7">
-        <v>208723</v>
+        <v>195548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,46 +7433,46 @@
         <v>230</v>
       </c>
       <c r="D11" s="7">
-        <v>231458</v>
+        <v>229414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="H11" s="7">
         <v>343</v>
       </c>
       <c r="I11" s="7">
-        <v>255343</v>
+        <v>240216</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
       </c>
       <c r="N11" s="7">
-        <v>486801</v>
+        <v>469630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,7 +7484,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7436,7 +7499,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7451,7 +7514,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7474,46 +7537,46 @@
         <v>132</v>
       </c>
       <c r="D13" s="7">
-        <v>105933</v>
+        <v>100909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>274</v>
       </c>
       <c r="I13" s="7">
-        <v>147777</v>
+        <v>137284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
       </c>
       <c r="N13" s="7">
-        <v>253710</v>
+        <v>238193</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,46 +7588,46 @@
         <v>160</v>
       </c>
       <c r="D14" s="7">
-        <v>216307</v>
+        <v>211648</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
       </c>
       <c r="I14" s="7">
-        <v>280779</v>
+        <v>338434</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="M14" s="7">
         <v>485</v>
       </c>
       <c r="N14" s="7">
-        <v>497086</v>
+        <v>550081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,7 +7639,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7591,7 +7654,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7606,7 +7669,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7629,46 +7692,46 @@
         <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>61523</v>
+        <v>55996</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
       </c>
       <c r="I16" s="7">
-        <v>89123</v>
+        <v>81042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="M16" s="7">
         <v>319</v>
       </c>
       <c r="N16" s="7">
-        <v>150646</v>
+        <v>137038</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,46 +7743,46 @@
         <v>179</v>
       </c>
       <c r="D17" s="7">
-        <v>135225</v>
+        <v>122746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="H17" s="7">
         <v>272</v>
       </c>
       <c r="I17" s="7">
-        <v>142373</v>
+        <v>127232</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="M17" s="7">
         <v>451</v>
       </c>
       <c r="N17" s="7">
-        <v>277598</v>
+        <v>249978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,7 +7794,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7746,7 +7809,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7761,7 +7824,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7784,46 +7847,46 @@
         <v>142</v>
       </c>
       <c r="D19" s="7">
-        <v>74537</v>
+        <v>71163</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="H19" s="7">
         <v>220</v>
       </c>
       <c r="I19" s="7">
-        <v>101885</v>
+        <v>95084</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="M19" s="7">
         <v>362</v>
       </c>
       <c r="N19" s="7">
-        <v>176422</v>
+        <v>166247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,46 +7898,46 @@
         <v>229</v>
       </c>
       <c r="D20" s="7">
-        <v>202686</v>
+        <v>198473</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
       </c>
       <c r="I20" s="7">
-        <v>173737</v>
+        <v>161972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="M20" s="7">
         <v>469</v>
       </c>
       <c r="N20" s="7">
-        <v>376423</v>
+        <v>360445</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,7 +7949,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7901,7 +7964,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7916,7 +7979,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7939,46 +8002,46 @@
         <v>237</v>
       </c>
       <c r="D22" s="7">
-        <v>206298</v>
+        <v>197308</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
         <v>372</v>
       </c>
       <c r="I22" s="7">
-        <v>364878</v>
+        <v>438752</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="M22" s="7">
         <v>609</v>
       </c>
       <c r="N22" s="7">
-        <v>571176</v>
+        <v>636060</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,46 +8053,46 @@
         <v>362</v>
       </c>
       <c r="D23" s="7">
-        <v>421456</v>
+        <v>426971</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
       </c>
       <c r="I23" s="7">
-        <v>439325</v>
+        <v>410513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="M23" s="7">
         <v>950</v>
       </c>
       <c r="N23" s="7">
-        <v>860781</v>
+        <v>837484</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,7 +8104,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8056,7 +8119,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8071,7 +8134,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8094,46 +8157,46 @@
         <v>344</v>
       </c>
       <c r="D25" s="7">
-        <v>308230</v>
+        <v>262849</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>403</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="H25" s="7">
         <v>514</v>
       </c>
       <c r="I25" s="7">
-        <v>359498</v>
+        <v>301387</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="M25" s="7">
         <v>858</v>
       </c>
       <c r="N25" s="7">
-        <v>667728</v>
+        <v>564236</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,46 +8208,46 @@
         <v>418</v>
       </c>
       <c r="D26" s="7">
-        <v>551198</v>
+        <v>665871</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>412</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
       </c>
       <c r="I26" s="7">
-        <v>506174</v>
+        <v>414005</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="M26" s="7">
         <v>965</v>
       </c>
       <c r="N26" s="7">
-        <v>1057372</v>
+        <v>1079876</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,7 +8259,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8211,7 +8274,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8226,7 +8289,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8249,46 +8312,46 @@
         <v>1328</v>
       </c>
       <c r="D28" s="7">
-        <v>1071322</v>
+        <v>1003443</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>273</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="H28" s="7">
         <v>2238</v>
       </c>
       <c r="I28" s="7">
-        <v>1456781</v>
+        <v>1428576</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="M28" s="7">
         <v>3566</v>
       </c>
       <c r="N28" s="7">
-        <v>2528103</v>
+        <v>2432019</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,46 +8363,46 @@
         <v>2048</v>
       </c>
       <c r="D29" s="7">
-        <v>2313906</v>
+        <v>2456374</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>281</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="H29" s="7">
         <v>3124</v>
       </c>
       <c r="I29" s="7">
-        <v>2348021</v>
+        <v>2230859</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="M29" s="7">
         <v>5172</v>
       </c>
       <c r="N29" s="7">
-        <v>4661927</v>
+        <v>4687233</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,7 +8414,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8366,7 +8429,7 @@
         <v>5362</v>
       </c>
       <c r="I30" s="7">
-        <v>3804802</v>
+        <v>3659435</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8381,7 +8444,7 @@
         <v>8738</v>
       </c>
       <c r="N30" s="7">
-        <v>7190030</v>
+        <v>7119252</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
